--- a/src/test/resources/testDataCapstone.xlsx
+++ b/src/test/resources/testDataCapstone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tai_lieu_tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F2ECD1-A739-40FD-BFB9-6BD06A959A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B8AE4F-22BE-47B2-B150-BAC45514F9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FCFEDF75-5A57-4CFD-93DC-927DDD36212C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>email</t>
   </si>
@@ -78,18 +78,12 @@
     <t>huy</t>
   </si>
   <si>
-    <t>test1zz@gmail.com</t>
-  </si>
-  <si>
     <t>0355482327</t>
   </si>
   <si>
     <t>04/02/2004</t>
   </si>
   <si>
-    <t>test3zz@gmail.com</t>
-  </si>
-  <si>
     <t>04/02/2005</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>huy@@</t>
   </si>
   <si>
-    <t>test4zz@gmail</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -124,6 +115,51 @@
   </si>
   <si>
     <t>Email đã tồn tại !</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>0355482332</t>
+  </si>
+  <si>
+    <t>Mật khẩu phải có ít nhất 6 ký tự</t>
+  </si>
+  <si>
+    <t>123456abcabcabcabc</t>
+  </si>
+  <si>
+    <t>0355482333</t>
+  </si>
+  <si>
+    <t>Mật khẩu không được vượt quá 16 ký</t>
+  </si>
+  <si>
+    <t>0355482334</t>
+  </si>
+  <si>
+    <t>Số điện thoại không hợp lệ</t>
+  </si>
+  <si>
+    <t>test1zzz@gmail.com</t>
+  </si>
+  <si>
+    <t>test2zzz@gmail.com</t>
+  </si>
+  <si>
+    <t>test4zzz@gmail</t>
+  </si>
+  <si>
+    <t>test3zzz@gmail.com</t>
+  </si>
+  <si>
+    <t>test5zzz@gmail.com</t>
+  </si>
+  <si>
+    <t>test6zzz@gmail.com</t>
+  </si>
+  <si>
+    <t>test7zzz@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -602,7 +638,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +647,7 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -639,19 +675,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,27 +697,27 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,19 +725,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -709,44 +745,80 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -824,10 +896,12 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E03AD2E8-08EE-496C-944C-614770FEBED0}"/>
-    <hyperlink ref="B3:B10" r:id="rId2" display="test1zz@gmail.com" xr:uid="{05943143-3A17-4CC3-8D68-592993EA49CC}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{5DD31F62-79F3-4F94-BE50-EB40A884E04B}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{561547A8-7E2A-4F6E-8B53-8A15BAF350E0}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{9EDEE82A-5F55-42FA-BD3A-F977869F8B05}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{5DD31F62-79F3-4F94-BE50-EB40A884E04B}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{561547A8-7E2A-4F6E-8B53-8A15BAF350E0}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{9EDEE82A-5F55-42FA-BD3A-F977869F8B05}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{E3A34C25-8706-4C91-B433-AC08631AD243}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{672AB289-86F0-43A7-9F94-6A419C917B20}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{7AC8B253-5541-423E-A3A4-60805F780020}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
